--- a/data/case1/5/Qlm1_1.xlsx
+++ b/data/case1/5/Qlm1_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.1418375834501262</v>
+        <v>-0.072771377589418762</v>
       </c>
       <c r="B1" s="0">
-        <v>0.14119706706531332</v>
+        <v>0.072339413916708395</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.14499855362311198</v>
+        <v>-0.061512152827962296</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14323077911221382</v>
+        <v>0.060212649248629901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.093512226193865899</v>
+        <v>-0.010498112877442622</v>
       </c>
       <c r="B3" s="0">
-        <v>0.092950868316858504</v>
+        <v>0.010132298344290191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.084950868396111545</v>
+        <v>-0.0021322984136951106</v>
       </c>
       <c r="B4" s="0">
-        <v>0.084441202571479579</v>
+        <v>0.0018030748534130225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.081441202615562425</v>
+        <v>0.0011969251168091333</v>
       </c>
       <c r="B5" s="0">
-        <v>0.079702714066424818</v>
+        <v>-0.0023132098093139319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035665061128780096</v>
+        <v>-0.024162326551223856</v>
       </c>
       <c r="B6" s="0">
-        <v>0.035227983177732014</v>
+        <v>0.024021216296825187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.025227983288440115</v>
+        <v>-0.014021216381922219</v>
       </c>
       <c r="B7" s="0">
-        <v>0.025126608783041515</v>
+        <v>0.014000999987194618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.015126608896294247</v>
+        <v>-0.0040010000736860896</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014959374076498388</v>
+        <v>0.0039914744800699786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.012959374128647116</v>
+        <v>-0.0019914745034683712</v>
       </c>
       <c r="B9" s="0">
-        <v>0.012827045678609927</v>
+        <v>0.0019888065871285221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.010827045732616725</v>
+        <v>1.1193389410024679e-05</v>
       </c>
       <c r="B10" s="0">
-        <v>0.01082019958739977</v>
+        <v>-1.0631125272553277e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0078201996495295134</v>
+        <v>0.0030106310938844416</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0078079108090065574</v>
+        <v>-0.0030103741413132212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020877851548952275</v>
+        <v>0.0065103741060350551</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020676253250188292</v>
+        <v>-0.0065196675711969299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017176253321212087</v>
+        <v>0.010019667537648047</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017084687324561365</v>
+        <v>-0.010034276231046135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090846874324972404</v>
+        <v>0.01803427616276565</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090549937478074938</v>
+        <v>-0.018070145959115713</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008054993801112964</v>
+        <v>0.0038099774886068971</v>
       </c>
       <c r="B15" s="0">
-        <v>0.008035843331803072</v>
+        <v>-0.0038272138816939361</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060358433938487721</v>
+        <v>0.0058272138631276782</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060033987954555279</v>
+        <v>-0.0058600448821453099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040033988585888025</v>
+        <v>0.0078600448648273868</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999206958847</v>
+        <v>-0.0078654463508174288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.009801486508902002</v>
+        <v>-0.0048272611372155438</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0099761883248348227</v>
+        <v>0.0047548652949984671</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0052618797196974931</v>
+        <v>-0.00075486532773583193</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0061916907139027977</v>
+        <v>0.00022059351906555946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.010191690681697452</v>
+        <v>-0.0080159702290014678</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.010466144733285887</v>
+        <v>0.0080054454450912971</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056452873029613</v>
+        <v>-0.0040054454785973803</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999680260245</v>
+        <v>0.0039999999660853547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045718552961352188</v>
+        <v>-0.045714536408379303</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045503528280908867</v>
+        <v>0.045500718127042816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503528334641103</v>
+        <v>-0.040500718174895312</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099832148743353</v>
+        <v>0.040099235457343951</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099832325990441</v>
+        <v>-0.020099235629838397</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999820249137</v>
+        <v>0.019999999824698911</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.042037652984221907</v>
+        <v>0.028475536339295004</v>
       </c>
       <c r="B25" s="0">
-        <v>0.04199252981188728</v>
+        <v>-0.028539722359845143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.039492529863547787</v>
+        <v>0.03103972233538066</v>
       </c>
       <c r="B26" s="0">
-        <v>0.039437327983341319</v>
+        <v>-0.031122452048844451</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.036937328036242167</v>
+        <v>-0.041293722163110669</v>
       </c>
       <c r="B27" s="0">
-        <v>0.036628021760741536</v>
+        <v>0.040754455612963092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.034628021815813703</v>
+        <v>-0.038754455639229413</v>
       </c>
       <c r="B28" s="0">
-        <v>0.034435484545930706</v>
+        <v>0.038403101717379151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.027435484644856345</v>
+        <v>-0.031403101788436416</v>
       </c>
       <c r="B29" s="0">
-        <v>0.027393162372144175</v>
+        <v>0.031312875958612096</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.032606837107822084</v>
+        <v>0.028687123547392002</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.032706609769715733</v>
+        <v>-0.028872145576439134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.039706609673769933</v>
+        <v>0.035872145507815034</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.039745201690655207</v>
+        <v>-0.035923654782545</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.049745201572795494</v>
+        <v>-0.0040007695430652745</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.049843897393545333</v>
+        <v>0.0039999999568038902</v>
       </c>
     </row>
   </sheetData>
